--- a/Results/ResultsAcceptable.xlsx
+++ b/Results/ResultsAcceptable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elanwyevans/Documents/Uni/Final Project Materials/Final Project/Results/All results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elanwyevans/Documents/Uni/Final Project Materials/Final Project/rekognition-project/aws-node-http-api-project/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F040F19-5341-8049-8AFC-5FD3FF280937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B275336-1861-C644-8103-AC362F236C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="780" windowWidth="22640" windowHeight="20540" xr2:uid="{BF8F2510-F6E0-B04B-A477-C0E44BF04C23}"/>
+    <workbookView xWindow="16760" yWindow="780" windowWidth="17800" windowHeight="20540" xr2:uid="{BF8F2510-F6E0-B04B-A477-C0E44BF04C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,6 +540,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53AA4C3-1935-C749-921F-58FA98859563}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E55"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,13 +886,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1692,37 +1692,37 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -1731,14 +1731,14 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C54" s="7"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C55" s="7"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="6" t="s">
         <v>116</v>
       </c>
